--- a/src/main/java/week3/algorithm/Арифметическое выражение.xlsx
+++ b/src/main/java/week3/algorithm/Арифметическое выражение.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/coursera-sport/src/main/java/week3/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B352E99-233E-E14F-B524-F243412831D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348BF67B-09EE-1F4D-9C39-F5B7D03B0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27580" yWindow="-8600" windowWidth="24460" windowHeight="19280" xr2:uid="{3FB52473-9179-C44C-822C-9796AE3A9746}"/>
+    <workbookView xWindow="18840" yWindow="-19760" windowWidth="24460" windowHeight="19280" activeTab="1" xr2:uid="{3FB52473-9179-C44C-822C-9796AE3A9746}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="дин бит" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,12 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Решение динамикой по битовым маскам</t>
+  </si>
+  <si>
+    <t>Числа</t>
+  </si>
+  <si>
+    <t>N=10</t>
+  </si>
+  <si>
+    <t>Количество вариантов множества 2 в степени N</t>
+  </si>
+  <si>
+    <t>Вариантов:</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>=25</t>
+  </si>
+  <si>
+    <t>=0</t>
+  </si>
+  <si>
+    <t>Сумма чисел =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно найти подпоследовательность сумма которой равна </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,6 +81,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,17 +445,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26245DE-00CC-9E4F-BB68-62B426830964}">
   <dimension ref="A7:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7">
         <v>21</v>
       </c>
@@ -448,7 +491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>-4</v>
@@ -488,7 +531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>-4</v>
       </c>
@@ -505,7 +548,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -520,7 +563,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -535,7 +578,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -550,7 +593,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -565,7 +608,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -580,7 +623,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>38</v>
       </c>
@@ -595,7 +638,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -610,7 +653,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -625,7 +668,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -640,7 +683,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23">
         <v>0</v>
       </c>
@@ -675,4 +718,538 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880CF282-00AA-E240-AB3A-F87FA097C0D0}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="D1">
+        <v>21</v>
+      </c>
+      <c r="E1">
+        <v>27</v>
+      </c>
+      <c r="F1">
+        <v>34</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>29</v>
+      </c>
+      <c r="I1">
+        <v>24</v>
+      </c>
+      <c r="J1">
+        <v>38</v>
+      </c>
+      <c r="K1">
+        <v>38</v>
+      </c>
+      <c r="L1">
+        <v>22</v>
+      </c>
+      <c r="M1">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>38</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <f>SUM(D2:M2)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <f>P2/2</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f>2^10</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>24+22</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f>38+24</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>